--- a/statics/files/withdraw.xlsx
+++ b/statics/files/withdraw.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/royalwang/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/royalwang/WorksPHP/ecjia-cityo2o/content/apps/withdraw/statics/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1DB152C-8652-DF4B-895D-711F30C9C8CD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC247CC2-D971-F24F-9EE3-05E44BC9D76F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15020" yWindow="9360" windowWidth="27840" windowHeight="16940" xr2:uid="{CEE31356-197E-BB4B-B11C-7779856BC2C2}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="First sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -434,7 +434,7 @@
   <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="31" customHeight="1"/>
